--- a/SlotsMath/doc/五龙数值文档2020_8_9.xlsx
+++ b/SlotsMath/doc/五龙数值文档2020_8_9.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>五狮是一个5转轮X3行的视频老虎机游戏，玩法机制有选择免费游戏次数、免费游戏期间出现钱袋奖励和再次触发免费游戏等。</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>比如说5列的positon均为0，那么玩家看到的元素为：</t>
+  </si>
+  <si>
+    <t>元素id</t>
+  </si>
+  <si>
+    <t>不包含的positon数量</t>
   </si>
 </sst>
 </file>
@@ -290,14 +296,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.000%"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00000%"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,6 +313,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -375,19 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -396,54 +396,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,6 +435,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -472,23 +450,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Geneva"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,10 +474,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Geneva"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -540,7 +553,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,49 +655,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,55 +685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,13 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,19 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,15 +1105,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1116,6 +1120,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1127,6 +1151,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,35 +1187,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,156 +1199,156 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1435,16 +1448,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1452,125 +1480,113 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 4 2" xfId="1"/>
-    <cellStyle name="Normal 2 4" xfId="2"/>
-    <cellStyle name="Normal 3 2" xfId="3"/>
-    <cellStyle name="Normal 13" xfId="4"/>
+    <cellStyle name="Normal 13" xfId="1"/>
+    <cellStyle name="Normal 3 2" xfId="2"/>
+    <cellStyle name="Normal 2 4" xfId="3"/>
+    <cellStyle name="Normal 2 4 2" xfId="4"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="5" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="6" builtinId="42"/>
     <cellStyle name="强调文字颜色 4" xfId="7" builtinId="41"/>
@@ -1981,357 +1997,357 @@
       </c>
     </row>
     <row r="4" ht="18.35" spans="2:13">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42">
+      <c r="B5" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43">
         <f>3^5</f>
         <v>243</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" ht="18.35" spans="2:13">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" ht="18.35" spans="2:13">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
     </row>
     <row r="20" ht="18.35" spans="2:13">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" customFormat="1" spans="2:2">
       <c r="B26" t="s">
@@ -2366,12 +2382,12 @@
   </cols>
   <sheetData>
     <row r="2" ht="18.35" spans="2:18">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="K2" s="19" t="s">
         <v>25</v>
       </c>
@@ -2384,12 +2400,12 @@
       <c r="R2" s="19"/>
     </row>
     <row r="3" spans="2:18">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="20"/>
@@ -2419,11 +2435,11 @@
       <c r="B4" s="9">
         <v>30</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="57">
+      <c r="D4" s="39"/>
+      <c r="E4" s="58">
         <f>SUM(E11:E12)</f>
         <v>0.599926081543729</v>
       </c>
@@ -2454,11 +2470,11 @@
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="9"/>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="57">
+      <c r="D5" s="39"/>
+      <c r="E5" s="58">
         <f>D21</f>
         <v>0.37082377115594</v>
       </c>
@@ -2487,11 +2503,11 @@
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="9"/>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="57"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="58"/>
       <c r="K6" s="22"/>
       <c r="L6" t="s">
         <v>36</v>
@@ -2519,9 +2535,9 @@
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="58">
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="59">
         <f>SUM(E4:E6)</f>
         <v>0.970749852699669</v>
       </c>
@@ -2549,10 +2565,10 @@
       </c>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="K8" s="22"/>
       <c r="L8" t="s">
         <v>39</v>
@@ -2577,12 +2593,12 @@
       </c>
     </row>
     <row r="9" ht="18.35" spans="2:18">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
       <c r="K9" s="22" t="s">
         <v>41</v>
       </c>
@@ -2747,15 +2763,15 @@
       </c>
     </row>
     <row r="15" ht="18.35" spans="2:18">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="K15" t="s">
         <v>51</v>
       </c>
@@ -2920,38 +2936,38 @@
       </c>
     </row>
     <row r="23" ht="18.35" spans="2:10">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="43" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" ht="35" customHeight="1" spans="3:10">
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="60"/>
-      <c r="H24" s="44" t="s">
+      <c r="F24" s="61"/>
+      <c r="H24" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="68" t="s">
+      <c r="I24" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="69" t="s">
+      <c r="J24" s="70" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2959,97 +2975,97 @@
       <c r="B25" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="47">
         <v>25</v>
       </c>
-      <c r="D25" s="47">
-        <v>2</v>
-      </c>
-      <c r="E25" s="61">
+      <c r="D25" s="48">
+        <v>2</v>
+      </c>
+      <c r="E25" s="62">
         <v>0.29</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="62" t="s">
+      <c r="F25" s="57"/>
+      <c r="G25" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="47">
         <f>'[1]25 FG'!$B$75</f>
         <v>25</v>
       </c>
-      <c r="I25" s="70">
-        <v>2</v>
-      </c>
-      <c r="J25" s="61">
+      <c r="I25" s="71">
+        <v>2</v>
+      </c>
+      <c r="J25" s="62">
         <v>0.55</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="22"/>
-      <c r="C26" s="48">
+      <c r="C26" s="49">
         <v>25</v>
       </c>
-      <c r="D26" s="49">
-        <v>3</v>
-      </c>
-      <c r="E26" s="61">
+      <c r="D26" s="50">
+        <v>3</v>
+      </c>
+      <c r="E26" s="62">
         <v>0.46</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="48">
+      <c r="F26" s="57"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="49">
         <f>'[1]25 FG'!$B$75</f>
         <v>25</v>
       </c>
-      <c r="I26" s="70">
+      <c r="I26" s="71">
         <v>5</v>
       </c>
-      <c r="J26" s="61">
+      <c r="J26" s="62">
         <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="22"/>
-      <c r="C27" s="50">
+      <c r="C27" s="51">
         <v>25</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="52">
         <v>5</v>
       </c>
-      <c r="E27" s="63">
+      <c r="E27" s="64">
         <v>0.25</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="48">
+      <c r="F27" s="57"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="49">
         <f>'[1]25 FG'!$B$75</f>
         <v>25</v>
       </c>
-      <c r="I27" s="70">
+      <c r="I27" s="71">
         <v>10</v>
       </c>
-      <c r="J27" s="61">
+      <c r="J27" s="62">
         <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="22"/>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="64">
+      <c r="D28" s="54"/>
+      <c r="E28" s="65">
         <v>1</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="48">
+      <c r="F28" s="57"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="49">
         <f>'[1]25 FG'!$B$75</f>
         <v>25</v>
       </c>
-      <c r="I28" s="70">
+      <c r="I28" s="71">
         <v>15</v>
       </c>
-      <c r="J28" s="61">
+      <c r="J28" s="62">
         <v>0.08</v>
       </c>
     </row>
@@ -3057,95 +3073,95 @@
       <c r="B29" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="47">
         <v>20</v>
       </c>
-      <c r="D29" s="49">
-        <v>3</v>
-      </c>
-      <c r="E29" s="61">
+      <c r="D29" s="50">
+        <v>3</v>
+      </c>
+      <c r="E29" s="62">
         <v>0.402</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="48">
+      <c r="F29" s="57"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="49">
         <f>'[1]25 FG'!$B$75</f>
         <v>25</v>
       </c>
-      <c r="I29" s="70">
+      <c r="I29" s="71">
         <v>20</v>
       </c>
-      <c r="J29" s="61">
+      <c r="J29" s="62">
         <v>0.06</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="22"/>
-      <c r="C30" s="48">
+      <c r="C30" s="49">
         <v>20</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="50">
         <v>5</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="62">
         <v>0.418</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="50">
+      <c r="F30" s="57"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="51">
         <f>'[1]25 FG'!$B$75</f>
         <v>25</v>
       </c>
-      <c r="I30" s="70">
+      <c r="I30" s="71">
         <v>50</v>
       </c>
-      <c r="J30" s="61">
+      <c r="J30" s="62">
         <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="22"/>
-      <c r="C31" s="50">
+      <c r="C31" s="51">
         <v>20</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="50">
         <v>8</v>
       </c>
-      <c r="E31" s="63">
+      <c r="E31" s="64">
         <v>0.18</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="65" t="s">
+      <c r="F31" s="57"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="71"/>
-      <c r="J31" s="64">
+      <c r="I31" s="72"/>
+      <c r="J31" s="65">
         <f>SUM(J25:J30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="22"/>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="64">
+      <c r="D32" s="55"/>
+      <c r="E32" s="65">
         <v>1</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="62" t="s">
+      <c r="F32" s="57"/>
+      <c r="G32" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="47">
         <f>'[1]20 FG'!$B$75</f>
         <v>20</v>
       </c>
-      <c r="I32" s="70">
-        <v>2</v>
-      </c>
-      <c r="J32" s="61">
+      <c r="I32" s="71">
+        <v>2</v>
+      </c>
+      <c r="J32" s="62">
         <v>0.581</v>
       </c>
     </row>
@@ -3153,95 +3169,95 @@
       <c r="B33" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="47">
         <v>15</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="50">
         <v>5</v>
       </c>
-      <c r="E33" s="61">
+      <c r="E33" s="62">
         <v>0.342</v>
       </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="48">
+      <c r="F33" s="57"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="49">
         <f>'[1]20 FG'!$B$75</f>
         <v>20</v>
       </c>
-      <c r="I33" s="70">
+      <c r="I33" s="71">
         <v>5</v>
       </c>
-      <c r="J33" s="61">
+      <c r="J33" s="62">
         <v>0.189</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="22"/>
-      <c r="C34" s="48">
+      <c r="C34" s="49">
         <v>15</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="50">
         <v>8</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="62">
         <v>0.478</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="48">
+      <c r="F34" s="57"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="49">
         <f>'[1]20 FG'!$B$75</f>
         <v>20</v>
       </c>
-      <c r="I34" s="70">
+      <c r="I34" s="71">
         <v>10</v>
       </c>
-      <c r="J34" s="61">
+      <c r="J34" s="62">
         <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="22"/>
-      <c r="C35" s="50">
+      <c r="C35" s="51">
         <v>15</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="50">
         <v>10</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="64">
         <v>0.18</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="48">
+      <c r="F35" s="57"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="49">
         <f>'[1]20 FG'!$B$75</f>
         <v>20</v>
       </c>
-      <c r="I35" s="70">
+      <c r="I35" s="71">
         <v>15</v>
       </c>
-      <c r="J35" s="61">
+      <c r="J35" s="62">
         <v>0.08</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="22"/>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="64">
+      <c r="D36" s="55"/>
+      <c r="E36" s="65">
         <v>1</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="48">
+      <c r="F36" s="57"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="49">
         <f>'[1]20 FG'!$B$75</f>
         <v>20</v>
       </c>
-      <c r="I36" s="70">
+      <c r="I36" s="71">
         <v>20</v>
       </c>
-      <c r="J36" s="61">
+      <c r="J36" s="62">
         <v>0.03</v>
       </c>
     </row>
@@ -3249,95 +3265,95 @@
       <c r="B37" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="47">
         <v>13</v>
       </c>
-      <c r="D37" s="49">
+      <c r="D37" s="50">
         <v>8</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="62">
         <v>0.735</v>
       </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="50">
+      <c r="F37" s="57"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="51">
         <f>'[1]20 FG'!$B$75</f>
         <v>20</v>
       </c>
-      <c r="I37" s="70">
+      <c r="I37" s="71">
         <v>50</v>
       </c>
-      <c r="J37" s="61">
+      <c r="J37" s="62">
         <v>0.02</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="22"/>
-      <c r="C38" s="48">
+      <c r="C38" s="49">
         <v>13</v>
       </c>
-      <c r="D38" s="49">
+      <c r="D38" s="50">
         <v>10</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="62">
         <v>0.175</v>
       </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="65" t="s">
+      <c r="F38" s="57"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="I38" s="54"/>
-      <c r="J38" s="64">
+      <c r="I38" s="55"/>
+      <c r="J38" s="65">
         <f>SUM(J32:J37)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="22"/>
-      <c r="C39" s="50">
+      <c r="C39" s="51">
         <v>13</v>
       </c>
-      <c r="D39" s="49">
+      <c r="D39" s="50">
         <v>15</v>
       </c>
-      <c r="E39" s="63">
+      <c r="E39" s="64">
         <v>0.09</v>
       </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="62" t="s">
+      <c r="F39" s="57"/>
+      <c r="G39" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="47">
         <f>'[1]15 FG'!$B$75</f>
         <v>15</v>
       </c>
-      <c r="I39" s="70">
-        <v>2</v>
-      </c>
-      <c r="J39" s="61">
+      <c r="I39" s="71">
+        <v>2</v>
+      </c>
+      <c r="J39" s="62">
         <v>0.67</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="22"/>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="64">
+      <c r="D40" s="55"/>
+      <c r="E40" s="65">
         <v>1</v>
       </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="48">
+      <c r="F40" s="57"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="49">
         <f>'[1]15 FG'!$B$75</f>
         <v>15</v>
       </c>
-      <c r="I40" s="70">
+      <c r="I40" s="71">
         <v>5</v>
       </c>
-      <c r="J40" s="61">
+      <c r="J40" s="62">
         <v>0.14</v>
       </c>
     </row>
@@ -3345,347 +3361,347 @@
       <c r="B41" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="47">
         <v>10</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="50">
         <v>10</v>
       </c>
-      <c r="E41" s="61">
+      <c r="E41" s="62">
         <v>0.764</v>
       </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="48">
+      <c r="F41" s="57"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="49">
         <f>'[1]15 FG'!$B$75</f>
         <v>15</v>
       </c>
-      <c r="I41" s="70">
+      <c r="I41" s="71">
         <v>10</v>
       </c>
-      <c r="J41" s="61">
+      <c r="J41" s="62">
         <v>0.07</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="22"/>
-      <c r="C42" s="48">
+      <c r="C42" s="49">
         <v>10</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="50">
         <v>15</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="62">
         <v>0.166</v>
       </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="48">
+      <c r="F42" s="57"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="49">
         <f>'[1]15 FG'!$B$75</f>
         <v>15</v>
       </c>
-      <c r="I42" s="70">
+      <c r="I42" s="71">
         <v>15</v>
       </c>
-      <c r="J42" s="61">
+      <c r="J42" s="62">
         <v>0.06</v>
       </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="22"/>
-      <c r="C43" s="50">
+      <c r="C43" s="51">
         <v>10</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="50">
         <v>30</v>
       </c>
-      <c r="E43" s="63">
+      <c r="E43" s="64">
         <v>0.07</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="48">
+      <c r="F43" s="57"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="49">
         <f>'[1]15 FG'!$B$75</f>
         <v>15</v>
       </c>
-      <c r="I43" s="70">
+      <c r="I43" s="71">
         <v>20</v>
       </c>
-      <c r="J43" s="61">
+      <c r="J43" s="62">
         <v>0.04</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="22"/>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="64">
+      <c r="D44" s="55"/>
+      <c r="E44" s="65">
         <v>1</v>
       </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="50">
+      <c r="F44" s="57"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="51">
         <f>'[1]15 FG'!$B$75</f>
         <v>15</v>
       </c>
-      <c r="I44" s="70">
+      <c r="I44" s="71">
         <v>50</v>
       </c>
-      <c r="J44" s="61">
+      <c r="J44" s="62">
         <v>0.02</v>
       </c>
     </row>
     <row r="45" spans="3:10">
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="66" t="s">
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="I45" s="54"/>
-      <c r="J45" s="64">
+      <c r="I45" s="55"/>
+      <c r="J45" s="65">
         <f>SUM(J39:J44)</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="3:10">
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="62" t="s">
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="48">
+      <c r="H46" s="49">
         <f>'[1]13 FG'!$B$75</f>
         <v>13</v>
       </c>
-      <c r="I46" s="72">
-        <v>2</v>
-      </c>
-      <c r="J46" s="61">
+      <c r="I46" s="73">
+        <v>2</v>
+      </c>
+      <c r="J46" s="62">
         <v>0.688</v>
       </c>
     </row>
     <row r="47" spans="3:10">
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="48">
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="49">
         <f>'[1]13 FG'!$B$75</f>
         <v>13</v>
       </c>
-      <c r="I47" s="72">
+      <c r="I47" s="73">
         <v>5</v>
       </c>
-      <c r="J47" s="61">
+      <c r="J47" s="62">
         <v>0.102</v>
       </c>
     </row>
     <row r="48" spans="3:10">
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="48">
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="49">
         <f>'[1]13 FG'!$B$75</f>
         <v>13</v>
       </c>
-      <c r="I48" s="72">
+      <c r="I48" s="73">
         <v>10</v>
       </c>
-      <c r="J48" s="61">
+      <c r="J48" s="62">
         <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="3:10">
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="48">
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="49">
         <f>'[1]13 FG'!$B$75</f>
         <v>13</v>
       </c>
-      <c r="I49" s="72">
+      <c r="I49" s="73">
         <v>15</v>
       </c>
-      <c r="J49" s="61">
+      <c r="J49" s="62">
         <v>0.06</v>
       </c>
     </row>
     <row r="50" spans="3:10">
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="48">
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="49">
         <f>'[1]13 FG'!$B$75</f>
         <v>13</v>
       </c>
-      <c r="I50" s="72">
+      <c r="I50" s="73">
         <v>20</v>
       </c>
-      <c r="J50" s="61">
+      <c r="J50" s="62">
         <v>0.03</v>
       </c>
     </row>
     <row r="51" spans="3:10">
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="48">
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="49">
         <f>'[1]13 FG'!$B$75</f>
         <v>13</v>
       </c>
-      <c r="I51" s="72">
+      <c r="I51" s="73">
         <v>50</v>
       </c>
-      <c r="J51" s="61">
+      <c r="J51" s="62">
         <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="3:10">
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="67" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="I52" s="54"/>
-      <c r="J52" s="64">
+      <c r="I52" s="55"/>
+      <c r="J52" s="65">
         <f>SUM(J46:J51)</f>
         <v>0.99</v>
       </c>
     </row>
     <row r="53" spans="3:10">
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="62" t="s">
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="46">
+      <c r="H53" s="47">
         <f>'[1]10 FG'!$B$75</f>
         <v>10</v>
       </c>
-      <c r="I53" s="70">
-        <v>2</v>
-      </c>
-      <c r="J53" s="61">
+      <c r="I53" s="71">
+        <v>2</v>
+      </c>
+      <c r="J53" s="62">
         <v>0.615</v>
       </c>
     </row>
     <row r="54" spans="3:10">
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="48">
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="49">
         <f>'[1]10 FG'!$B$75</f>
         <v>10</v>
       </c>
-      <c r="I54" s="70">
+      <c r="I54" s="71">
         <v>5</v>
       </c>
-      <c r="J54" s="61">
+      <c r="J54" s="62">
         <v>0.135</v>
       </c>
     </row>
     <row r="55" spans="3:10">
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="48">
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="49">
         <f>'[1]10 FG'!$B$75</f>
         <v>10</v>
       </c>
-      <c r="I55" s="70">
+      <c r="I55" s="71">
         <v>10</v>
       </c>
-      <c r="J55" s="61">
+      <c r="J55" s="62">
         <v>0.09</v>
       </c>
     </row>
     <row r="56" spans="3:10">
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="48">
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="49">
         <f>'[1]10 FG'!$B$75</f>
         <v>10</v>
       </c>
-      <c r="I56" s="70">
+      <c r="I56" s="71">
         <v>15</v>
       </c>
-      <c r="J56" s="61">
+      <c r="J56" s="62">
         <v>0.08</v>
       </c>
     </row>
     <row r="57" spans="3:10">
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="48">
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="49">
         <f>'[1]10 FG'!$B$75</f>
         <v>10</v>
       </c>
-      <c r="I57" s="70">
+      <c r="I57" s="71">
         <v>20</v>
       </c>
-      <c r="J57" s="61">
+      <c r="J57" s="62">
         <v>0.06</v>
       </c>
     </row>
     <row r="58" spans="3:10">
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="50">
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="51">
         <f>'[1]10 FG'!$B$75</f>
         <v>10</v>
       </c>
-      <c r="I58" s="70">
+      <c r="I58" s="71">
         <v>50</v>
       </c>
-      <c r="J58" s="61">
+      <c r="J58" s="62">
         <v>0.02</v>
       </c>
     </row>
     <row r="59" spans="3:10">
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="66" t="s">
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="I59" s="54"/>
-      <c r="J59" s="64">
+      <c r="I59" s="55"/>
+      <c r="J59" s="65">
         <f>SUM(J53:J58)</f>
         <v>1</v>
       </c>
@@ -5081,16 +5097,16 @@
         <f>COUNTA(G8:G41)</f>
         <v>34</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" customFormat="1" ht="18.35" spans="2:16">
       <c r="B4" s="1"/>
@@ -6253,15 +6269,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:W42"/>
+  <dimension ref="B1:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="3" max="3" width="9.57142857142857"/>
+    <col min="19" max="19" width="9.57142857142857"/>
+    <col min="25" max="25" width="13.9821428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="18.35"/>
@@ -6354,7 +6372,6 @@
       <c r="G4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H4"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20" t="s">
         <v>80</v>
@@ -6394,7 +6411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="2:23">
+    <row r="5" customFormat="1" spans="2:26">
       <c r="B5" s="6" t="s">
         <v>82</v>
       </c>
@@ -6413,7 +6430,6 @@
       <c r="G5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H5"/>
       <c r="I5" s="22" t="s">
         <v>31</v>
       </c>
@@ -6461,8 +6477,14 @@
       <c r="W5" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" customFormat="1" spans="2:23">
+      <c r="Y5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="2:25">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="str">
         <f>C33</f>
@@ -6512,25 +6534,28 @@
         <v>2</v>
       </c>
       <c r="R6" s="7"/>
-      <c r="S6" s="8" t="str">
+      <c r="S6" s="8">
         <f>S33</f>
-        <v>F</v>
-      </c>
-      <c r="T6" s="8" t="str">
+        <v>6</v>
+      </c>
+      <c r="T6" s="8">
         <f>T35</f>
-        <v>C</v>
-      </c>
-      <c r="U6" s="8" t="str">
+        <v>3</v>
+      </c>
+      <c r="U6" s="8">
         <f>U34</f>
-        <v>D</v>
-      </c>
-      <c r="V6" s="8" t="str">
+        <v>4</v>
+      </c>
+      <c r="V6" s="8">
         <f>V33</f>
-        <v>H</v>
-      </c>
-      <c r="W6" s="16" t="str">
+        <v>8</v>
+      </c>
+      <c r="W6" s="16">
         <f>W40</f>
-        <v>I</v>
+        <v>9</v>
+      </c>
+      <c r="Y6" s="33" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:23">
@@ -6583,25 +6608,25 @@
         <v>4</v>
       </c>
       <c r="R7" s="7"/>
-      <c r="S7" s="8" t="str">
+      <c r="S7" s="8">
         <f>S34</f>
-        <v>D</v>
-      </c>
-      <c r="T7" s="8" t="str">
+        <v>4</v>
+      </c>
+      <c r="T7" s="8">
         <f>T36</f>
-        <v>K</v>
-      </c>
-      <c r="U7" s="8" t="str">
+        <v>11</v>
+      </c>
+      <c r="U7" s="8">
         <f>U35</f>
-        <v>I</v>
-      </c>
-      <c r="V7" s="8" t="str">
+        <v>9</v>
+      </c>
+      <c r="V7" s="8">
         <f>V34</f>
-        <v>E</v>
-      </c>
-      <c r="W7" s="16" t="str">
+        <v>5</v>
+      </c>
+      <c r="W7" s="16">
         <f>W41</f>
-        <v>E</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:23">
@@ -6623,7 +6648,6 @@
       <c r="G8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H8"/>
       <c r="I8" s="22"/>
       <c r="J8" t="s">
         <v>38</v>
@@ -6654,20 +6678,25 @@
       <c r="R8" s="7">
         <v>0</v>
       </c>
-      <c r="S8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>42</v>
+      <c r="S8" s="9">
+        <f>IF(C8=0,0,VLOOKUP(C8,$J$5:$P$17,2,FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="T8" s="9">
+        <f>IF(D8=0,0,VLOOKUP(D8,$J$5:$P$17,2,FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="U8" s="9">
+        <f>IF(E8=0,0,VLOOKUP(E8,$J$5:$P$17,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="V8" s="9">
+        <f>IF(F8=0,0,VLOOKUP(F8,$J$5:$P$17,2,FALSE))</f>
+        <v>7</v>
+      </c>
+      <c r="W8" s="9">
+        <f>IF(G8=0,0,VLOOKUP(G8,$J$5:$P$17,2,FALSE))</f>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:23">
@@ -6689,7 +6718,6 @@
       <c r="G9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H9"/>
       <c r="I9" s="22"/>
       <c r="J9" t="s">
         <v>39</v>
@@ -6720,20 +6748,25 @@
       <c r="R9" s="7">
         <v>1</v>
       </c>
-      <c r="S9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="W9" s="17" t="s">
-        <v>49</v>
+      <c r="S9" s="9">
+        <f t="shared" ref="S9:S41" si="5">IF(C9=0,0,VLOOKUP(C9,$J$5:$P$17,2,FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="T9" s="9">
+        <f t="shared" ref="T9:T41" si="6">IF(D9=0,0,VLOOKUP(D9,$J$5:$P$17,2,FALSE))</f>
+        <v>10</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" ref="U9:U41" si="7">IF(E9=0,0,VLOOKUP(E9,$J$5:$P$17,2,FALSE))</f>
+        <v>11</v>
+      </c>
+      <c r="V9" s="9">
+        <f t="shared" ref="V9:V41" si="8">IF(F9=0,0,VLOOKUP(F9,$J$5:$P$17,2,FALSE))</f>
+        <v>2</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" ref="W9:W41" si="9">IF(G9=0,0,VLOOKUP(G9,$J$5:$P$17,2,FALSE))</f>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:23">
@@ -6755,7 +6788,6 @@
       <c r="G10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H10"/>
       <c r="I10" s="22" t="s">
         <v>41</v>
       </c>
@@ -6766,42 +6798,47 @@
         <v>6</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:P10" si="5">COUNTIF(C$8:C$41,$J10)</f>
+        <f t="shared" ref="L10:P10" si="10">COUNTIF(C$8:C$41,$J10)</f>
         <v>3</v>
       </c>
       <c r="M10">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="R10" s="7">
+        <v>2</v>
+      </c>
+      <c r="S10" s="9">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="R10" s="7">
-        <v>2</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="V10" s="9">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:23">
@@ -6823,7 +6860,6 @@
       <c r="G11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H11"/>
       <c r="I11" s="22"/>
       <c r="J11" t="s">
         <v>43</v>
@@ -6832,42 +6868,47 @@
         <v>7</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:P11" si="6">COUNTIF(C$8:C$41,$J11)</f>
+        <f t="shared" ref="L11:P11" si="11">COUNTIF(C$8:C$41,$J11)</f>
         <v>2</v>
       </c>
       <c r="M11">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="R11" s="7">
+        <v>3</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T11" s="9">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="R11" s="7">
-        <v>3</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="W11" s="17" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="V11" s="9">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:23">
@@ -6889,7 +6930,6 @@
       <c r="G12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H12"/>
       <c r="I12" s="22"/>
       <c r="J12" t="s">
         <v>44</v>
@@ -6898,42 +6938,47 @@
         <v>8</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:P12" si="7">COUNTIF(C$8:C$41,$J12)</f>
+        <f t="shared" ref="L12:P12" si="12">COUNTIF(C$8:C$41,$J12)</f>
         <v>2</v>
       </c>
       <c r="M12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="N12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="O12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="R12" s="7">
         <v>4</v>
       </c>
-      <c r="S12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>32</v>
+      <c r="S12" s="9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V12" s="9">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:23">
@@ -6955,7 +7000,6 @@
       <c r="G13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H13"/>
       <c r="I13" s="22"/>
       <c r="J13" t="s">
         <v>46</v>
@@ -6964,42 +7008,47 @@
         <v>9</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:P13" si="8">COUNTIF(C$8:C$41,$J13)</f>
+        <f t="shared" ref="L13:P13" si="13">COUNTIF(C$8:C$41,$J13)</f>
         <v>3</v>
       </c>
       <c r="M13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="N13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="O13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="R13" s="7">
         <v>5</v>
       </c>
-      <c r="S13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W13" s="17" t="s">
-        <v>46</v>
+      <c r="S13" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V13" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:23">
@@ -7021,7 +7070,6 @@
       <c r="G14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H14"/>
       <c r="I14" s="22"/>
       <c r="J14" t="s">
         <v>47</v>
@@ -7030,42 +7078,47 @@
         <v>10</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:P14" si="9">COUNTIF(C$8:C$41,$J14)</f>
+        <f t="shared" ref="L14:P14" si="14">COUNTIF(C$8:C$41,$J14)</f>
         <v>3</v>
       </c>
       <c r="M14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="N14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="O14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="P14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="R14" s="7">
         <v>6</v>
       </c>
-      <c r="S14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W14" s="17" t="s">
-        <v>36</v>
+      <c r="S14" s="9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="V14" s="9">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:23">
@@ -7087,7 +7140,6 @@
       <c r="G15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H15"/>
       <c r="I15" s="22"/>
       <c r="J15" t="s">
         <v>49</v>
@@ -7096,42 +7148,47 @@
         <v>11</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:P15" si="10">COUNTIF(C$8:C$41,$J15)</f>
+        <f t="shared" ref="L15:P15" si="15">COUNTIF(C$8:C$41,$J15)</f>
         <v>1</v>
       </c>
       <c r="M15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="N15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="P15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="R15" s="7">
         <v>7</v>
       </c>
-      <c r="S15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="W15" s="17" t="s">
-        <v>44</v>
+      <c r="S15" s="9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="V15" s="9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:23">
@@ -7153,7 +7210,6 @@
       <c r="G16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H16"/>
       <c r="I16" t="s">
         <v>51</v>
       </c>
@@ -7164,42 +7220,47 @@
         <v>21</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:P16" si="11">COUNTIF(C$8:C$41,$J16)</f>
+        <f t="shared" ref="L16:P16" si="16">COUNTIF(C$8:C$41,$J16)</f>
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R16" s="7">
         <v>8</v>
       </c>
-      <c r="S16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="W16" s="17" t="s">
-        <v>59</v>
+      <c r="S16" s="9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="V16" s="9">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" si="9"/>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:23">
@@ -7221,7 +7282,6 @@
       <c r="G17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H17"/>
       <c r="I17" t="s">
         <v>58</v>
       </c>
@@ -7232,42 +7292,47 @@
         <v>22</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:P17" si="12">COUNTIF(C$8:C$41,$J17)</f>
+        <f t="shared" ref="L17:P17" si="17">COUNTIF(C$8:C$41,$J17)</f>
         <v>1</v>
       </c>
       <c r="M17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="N17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="O17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="P17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="R17" s="7">
         <v>9</v>
       </c>
-      <c r="S17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="T17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W17" s="17" t="s">
-        <v>43</v>
+      <c r="S17" s="9">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="T17" s="9">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="9">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="W17" s="9">
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:23">
@@ -7292,20 +7357,25 @@
       <c r="R18" s="7">
         <v>10</v>
       </c>
-      <c r="S18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>38</v>
+      <c r="S18" s="9">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="T18" s="9">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="V18" s="9">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="W18" s="9">
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:23">
@@ -7330,20 +7400,25 @@
       <c r="R19" s="7">
         <v>11</v>
       </c>
-      <c r="S19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W19" s="17" t="s">
-        <v>42</v>
+      <c r="S19" s="9">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="T19" s="9">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="V19" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="W19" s="9">
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:23">
@@ -7365,27 +7440,31 @@
       <c r="G20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H20"/>
       <c r="I20" t="s">
         <v>84</v>
       </c>
       <c r="R20" s="7">
         <v>12</v>
       </c>
-      <c r="S20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="W20" s="17" t="s">
-        <v>47</v>
+      <c r="S20" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="9">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="U20" s="9">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="W20" s="9">
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:23">
@@ -7407,27 +7486,31 @@
       <c r="G21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H21"/>
       <c r="I21" t="s">
         <v>85</v>
       </c>
       <c r="R21" s="7">
         <v>13</v>
       </c>
-      <c r="S21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="W21" s="17" t="s">
-        <v>36</v>
+      <c r="S21" s="9">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="T21" s="9">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="U21" s="9">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="V21" s="9">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="W21" s="9">
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="18.35" spans="2:23">
@@ -7449,27 +7532,31 @@
       <c r="G22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H22"/>
       <c r="I22" t="s">
         <v>86</v>
       </c>
       <c r="R22" s="7">
         <v>14</v>
       </c>
-      <c r="S22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="T22" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>49</v>
+      <c r="S22" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T22" s="9">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="U22" s="9">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="V22" s="9">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="W22" s="9">
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="18.35" spans="2:23">
@@ -7491,7 +7578,6 @@
       <c r="G23" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H23"/>
       <c r="I23" s="24" t="s">
         <v>47</v>
       </c>
@@ -7510,20 +7596,25 @@
       <c r="R23" s="7">
         <v>15</v>
       </c>
-      <c r="S23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="W23" s="17" t="s">
-        <v>42</v>
+      <c r="S23" s="9">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="T23" s="9">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="V23" s="9">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="W23" s="9">
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:23">
@@ -7545,7 +7636,6 @@
       <c r="G24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H24"/>
       <c r="I24" s="26" t="s">
         <v>39</v>
       </c>
@@ -7564,20 +7654,25 @@
       <c r="R24" s="7">
         <v>16</v>
       </c>
-      <c r="S24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="U24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="W24" s="17" t="s">
-        <v>39</v>
+      <c r="S24" s="9">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T24" s="9">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="U24" s="9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V24" s="9">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="W24" s="9">
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="18.35" spans="2:23">
@@ -7599,7 +7694,6 @@
       <c r="G25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H25"/>
       <c r="I25" s="28" t="s">
         <v>42</v>
       </c>
@@ -7618,20 +7712,25 @@
       <c r="R25" s="7">
         <v>17</v>
       </c>
-      <c r="S25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W25" s="17" t="s">
-        <v>44</v>
+      <c r="S25" s="9">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="T25" s="9">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="U25" s="9">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="18.35" spans="2:23">
@@ -7656,20 +7755,25 @@
       <c r="R26" s="7">
         <v>18</v>
       </c>
-      <c r="S26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="W26" s="17" t="s">
-        <v>32</v>
+      <c r="S26" s="9">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T26" s="9">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="U26" s="9">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="V26" s="9">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="W26" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:23">
@@ -7694,20 +7798,25 @@
       <c r="R27" s="7">
         <v>19</v>
       </c>
-      <c r="S27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="V27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="W27" s="17" t="s">
-        <v>47</v>
+      <c r="S27" s="9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="T27" s="9">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="U27" s="9">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="V27" s="9">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="W27" s="9">
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:23">
@@ -7732,20 +7841,25 @@
       <c r="R28" s="7">
         <v>20</v>
       </c>
-      <c r="S28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W28" s="17" t="s">
-        <v>36</v>
+      <c r="S28" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T28" s="9">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="U28" s="9">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V28" s="9">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="W28" s="9">
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:23">
@@ -7770,20 +7884,25 @@
       <c r="R29" s="7">
         <v>21</v>
       </c>
-      <c r="S29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="T29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U29" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="W29" s="17" t="s">
-        <v>42</v>
+      <c r="S29" s="9">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="T29" s="9">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="U29" s="9">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="V29" s="9">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="W29" s="9">
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:23">
@@ -7808,20 +7927,25 @@
       <c r="R30" s="7">
         <v>22</v>
       </c>
-      <c r="S30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="U30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="V30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W30" s="17" t="s">
-        <v>47</v>
+      <c r="S30" s="9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T30" s="9">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="U30" s="9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="V30" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="W30" s="9">
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:23">
@@ -7846,20 +7970,25 @@
       <c r="R31" s="7">
         <v>23</v>
       </c>
-      <c r="S31" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="U31" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="V31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="W31" s="17" t="s">
-        <v>34</v>
+      <c r="S31" s="9">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="T31" s="9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U31" s="9">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="V31" s="9">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="W31" s="9">
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:23">
@@ -7884,20 +8013,25 @@
       <c r="R32" s="7">
         <v>24</v>
       </c>
-      <c r="S32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="T32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="U32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W32" s="17" t="s">
-        <v>44</v>
+      <c r="S32" s="9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T32" s="9">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="U32" s="9">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="V32" s="9">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="W32" s="9">
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:23">
@@ -7922,20 +8056,25 @@
       <c r="R33" s="7">
         <v>25</v>
       </c>
-      <c r="S33" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="T33" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="U33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="W33" s="17" t="s">
-        <v>43</v>
+      <c r="S33" s="9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T33" s="9">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="U33" s="9">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="V33" s="9">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="W33" s="9">
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="2:23">
@@ -7960,20 +8099,25 @@
       <c r="R34" s="7">
         <v>26</v>
       </c>
-      <c r="S34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="T34" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="V34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="W34" s="17" t="s">
-        <v>46</v>
+      <c r="S34" s="9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T34" s="9">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="U34" s="9">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V34" s="9">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="W34" s="9">
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="2:23">
@@ -7999,19 +8143,24 @@
         <v>27</v>
       </c>
       <c r="S35" s="9">
-        <v>0</v>
-      </c>
-      <c r="T35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U35" s="9" t="s">
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="U35" s="9">
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="V35" s="9">
-        <v>0</v>
-      </c>
-      <c r="W35" s="17" t="s">
-        <v>38</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="9">
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="2:23">
@@ -8037,19 +8186,24 @@
         <v>28</v>
       </c>
       <c r="S36" s="9">
-        <v>0</v>
-      </c>
-      <c r="T36" s="9" t="s">
-        <v>49</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="U36" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V36" s="9">
-        <v>0</v>
-      </c>
-      <c r="W36" s="17" t="s">
-        <v>42</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="9">
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="2:23">
@@ -8075,19 +8229,24 @@
         <v>29</v>
       </c>
       <c r="S37" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T37" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U37" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V37" s="9">
-        <v>0</v>
-      </c>
-      <c r="W37" s="17" t="s">
-        <v>34</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="9">
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="2:23">
@@ -8113,19 +8272,24 @@
         <v>30</v>
       </c>
       <c r="S38" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T38" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U38" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V38" s="9">
-        <v>0</v>
-      </c>
-      <c r="W38" s="17" t="s">
-        <v>49</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="9">
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="2:23">
@@ -8151,19 +8315,24 @@
         <v>31</v>
       </c>
       <c r="S39" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T39" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U39" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V39" s="9">
-        <v>0</v>
-      </c>
-      <c r="W39" s="17" t="s">
-        <v>36</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="9">
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="2:23">
@@ -8189,19 +8358,24 @@
         <v>32</v>
       </c>
       <c r="S40" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T40" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U40" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V40" s="9">
-        <v>0</v>
-      </c>
-      <c r="W40" s="17" t="s">
-        <v>46</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="9">
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="18.35" spans="2:23">
@@ -8226,20 +8400,25 @@
       <c r="R41" s="10">
         <v>33</v>
       </c>
-      <c r="S41" s="11">
-        <v>0</v>
-      </c>
-      <c r="T41" s="11">
-        <v>0</v>
-      </c>
-      <c r="U41" s="11">
-        <v>0</v>
-      </c>
-      <c r="V41" s="11">
-        <v>0</v>
-      </c>
-      <c r="W41" s="18" t="s">
-        <v>39</v>
+      <c r="S41" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="9">
+        <f t="shared" si="9"/>
+        <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="18.35"/>
